--- a/va_facility_data_2025-02-20/Vancouver VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Vancouver%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Vancouver VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Vancouver%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R37de4577004543a684a5424350ff52af"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R884fe47d7a6d473f8e7fafc16fa0b2f8"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf2002a5ade194a3cb51401fa327eebf3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rac92e5edfcfa443daa165d42c3b285c2"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra296610e8c8c4f2e977d68c1c3978593"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R45a419ce310c468da72c5e3eaef4cc91"/>
   </x:sheets>
 </x:workbook>
 </file>
